--- a/Code/Results/Cases/Case_4_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9961389245970464</v>
+        <v>1.024040460224237</v>
       </c>
       <c r="D2">
-        <v>1.013475427887584</v>
+        <v>1.028496038485717</v>
       </c>
       <c r="E2">
-        <v>1.004340776791387</v>
+        <v>1.027665297947351</v>
       </c>
       <c r="F2">
-        <v>0.9727878564315663</v>
+        <v>1.022515992300518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03854651833208</v>
+        <v>1.031663216818477</v>
       </c>
       <c r="J2">
-        <v>1.018435736268835</v>
+        <v>1.029217301905035</v>
       </c>
       <c r="K2">
-        <v>1.024750167308577</v>
+        <v>1.031312686883958</v>
       </c>
       <c r="L2">
-        <v>1.015739967148033</v>
+        <v>1.030484364629102</v>
       </c>
       <c r="M2">
-        <v>0.9846397845245297</v>
+        <v>1.025350143973158</v>
       </c>
       <c r="N2">
-        <v>1.010067226976549</v>
+        <v>1.01377941020637</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000219609052327</v>
+        <v>1.024889188612673</v>
       </c>
       <c r="D3">
-        <v>1.016313677886483</v>
+        <v>1.029105872936048</v>
       </c>
       <c r="E3">
-        <v>1.007914087346012</v>
+        <v>1.028461077837401</v>
       </c>
       <c r="F3">
-        <v>0.9795457226516495</v>
+        <v>1.023999682693419</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039600833024571</v>
+        <v>1.031832701924532</v>
       </c>
       <c r="J3">
-        <v>1.020704289093341</v>
+        <v>1.029705288333132</v>
       </c>
       <c r="K3">
-        <v>1.026741992086582</v>
+        <v>1.031731003574622</v>
       </c>
       <c r="L3">
-        <v>1.018446697598994</v>
+        <v>1.031087949892214</v>
       </c>
       <c r="M3">
-        <v>0.9904471871072789</v>
+        <v>1.026638668804998</v>
       </c>
       <c r="N3">
-        <v>1.01083090108132</v>
+        <v>1.013942538246503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002805318051094</v>
+        <v>1.025438607123161</v>
       </c>
       <c r="D4">
-        <v>1.018114878804715</v>
+        <v>1.029500650977918</v>
       </c>
       <c r="E4">
-        <v>1.010183325245159</v>
+        <v>1.028976584168031</v>
       </c>
       <c r="F4">
-        <v>0.9838142007504531</v>
+        <v>1.024959991830948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040259618895123</v>
+        <v>1.031941284243814</v>
       </c>
       <c r="J4">
-        <v>1.022137534714937</v>
+        <v>1.030020646449017</v>
       </c>
       <c r="K4">
-        <v>1.0279994808564</v>
+        <v>1.032001163746147</v>
       </c>
       <c r="L4">
-        <v>1.020160380728166</v>
+        <v>1.031478441090968</v>
       </c>
       <c r="M4">
-        <v>0.9941119809255672</v>
+        <v>1.027472199968253</v>
       </c>
       <c r="N4">
-        <v>1.01131325288664</v>
+        <v>1.014047915641866</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003879710926751</v>
+        <v>1.025669638111786</v>
       </c>
       <c r="D5">
-        <v>1.018863916544873</v>
+        <v>1.029666656345226</v>
       </c>
       <c r="E5">
-        <v>1.011127401000843</v>
+        <v>1.029193441766616</v>
       </c>
       <c r="F5">
-        <v>0.9855849247505132</v>
+        <v>1.025363772377986</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040531100516179</v>
+        <v>1.031986671962122</v>
       </c>
       <c r="J5">
-        <v>1.022732044361395</v>
+        <v>1.030153126364585</v>
       </c>
       <c r="K5">
-        <v>1.028520849808627</v>
+        <v>1.032114614317151</v>
       </c>
       <c r="L5">
-        <v>1.020872078186558</v>
+        <v>1.031642586454573</v>
       </c>
       <c r="M5">
-        <v>0.9956314414380946</v>
+        <v>1.027822564441884</v>
       </c>
       <c r="N5">
-        <v>1.011513298008597</v>
+        <v>1.014092173633045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004059378294873</v>
+        <v>1.025708432462715</v>
       </c>
       <c r="D6">
-        <v>1.0189892108259</v>
+        <v>1.029694531731154</v>
       </c>
       <c r="E6">
-        <v>1.011285344518415</v>
+        <v>1.029229861219261</v>
       </c>
       <c r="F6">
-        <v>0.9858808789028167</v>
+        <v>1.025431572923764</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04057636641101</v>
+        <v>1.031994277486775</v>
       </c>
       <c r="J6">
-        <v>1.022831402032115</v>
+        <v>1.03017536464513</v>
       </c>
       <c r="K6">
-        <v>1.028607969447384</v>
+        <v>1.032133655833828</v>
       </c>
       <c r="L6">
-        <v>1.020991071593565</v>
+        <v>1.031670146159313</v>
       </c>
       <c r="M6">
-        <v>0.9958853502509966</v>
+        <v>1.027881389219931</v>
       </c>
       <c r="N6">
-        <v>1.011546728526448</v>
+        <v>1.014099602236534</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002819723198183</v>
+        <v>1.025441693953535</v>
       </c>
       <c r="D7">
-        <v>1.018124919303005</v>
+        <v>1.029502868991272</v>
       </c>
       <c r="E7">
-        <v>1.010195978507537</v>
+        <v>1.028979481285946</v>
       </c>
       <c r="F7">
-        <v>0.9838379529861977</v>
+        <v>1.024965386899995</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040263267771842</v>
+        <v>1.031941891739892</v>
       </c>
       <c r="J7">
-        <v>1.022145509774433</v>
+        <v>1.030022417032429</v>
       </c>
       <c r="K7">
-        <v>1.028006475725044</v>
+        <v>1.032002680169212</v>
       </c>
       <c r="L7">
-        <v>1.020169924397633</v>
+        <v>1.031480634477516</v>
       </c>
       <c r="M7">
-        <v>0.9941323660802869</v>
+        <v>1.027476881755978</v>
       </c>
       <c r="N7">
-        <v>1.011315936534754</v>
+        <v>1.014048507187219</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.997529643474271</v>
+        <v>1.02432724298922</v>
       </c>
       <c r="D8">
-        <v>1.01444211341301</v>
+        <v>1.028702098148131</v>
       </c>
       <c r="E8">
-        <v>1.005557510503091</v>
+        <v>1.027934114086769</v>
       </c>
       <c r="F8">
-        <v>0.9750940746628043</v>
+        <v>1.023017360406094</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038907764174785</v>
+        <v>1.031720719744845</v>
       </c>
       <c r="J8">
-        <v>1.019209749016323</v>
+        <v>1.029382302108687</v>
       </c>
       <c r="K8">
-        <v>1.025429947107209</v>
+        <v>1.031454166015846</v>
       </c>
       <c r="L8">
-        <v>1.016662724363988</v>
+        <v>1.030688362950532</v>
       </c>
       <c r="M8">
-        <v>0.9866223264342442</v>
+        <v>1.025785656620624</v>
       </c>
       <c r="N8">
-        <v>1.010327811713125</v>
+        <v>1.0138345766898</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9877657697165477</v>
+        <v>1.022365264088429</v>
       </c>
       <c r="D9">
-        <v>1.007668833733575</v>
+        <v>1.027292419921237</v>
       </c>
       <c r="E9">
-        <v>0.9970375582976491</v>
+        <v>1.026096554757183</v>
       </c>
       <c r="F9">
-        <v>0.9588273714930791</v>
+        <v>1.01958652712302</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036333206106094</v>
+        <v>1.031322684269613</v>
       </c>
       <c r="J9">
-        <v>1.013758072328817</v>
+        <v>1.02825128105463</v>
       </c>
       <c r="K9">
-        <v>1.020638702824067</v>
+        <v>1.030483667066894</v>
       </c>
       <c r="L9">
-        <v>1.01017888260439</v>
+        <v>1.029291780942482</v>
       </c>
       <c r="M9">
-        <v>0.9726257417758646</v>
+        <v>1.02280359414272</v>
       </c>
       <c r="N9">
-        <v>1.008491999705195</v>
+        <v>1.013456254513323</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9809252642104435</v>
+        <v>1.021058544724684</v>
       </c>
       <c r="D10">
-        <v>1.002942903767597</v>
+        <v>1.026353625939112</v>
       </c>
       <c r="E10">
-        <v>0.9910982872821903</v>
+        <v>1.024874603618385</v>
       </c>
       <c r="F10">
-        <v>0.947313307258981</v>
+        <v>1.017300301730312</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034481846629228</v>
+        <v>1.03105176414241</v>
       </c>
       <c r="J10">
-        <v>1.009916669208837</v>
+        <v>1.027495237457536</v>
       </c>
       <c r="K10">
-        <v>1.01725922569809</v>
+        <v>1.029834047658989</v>
       </c>
       <c r="L10">
-        <v>1.005630146696792</v>
+        <v>1.028360428610037</v>
       </c>
       <c r="M10">
-        <v>0.9627037778436319</v>
+        <v>1.020814070126477</v>
       </c>
       <c r="N10">
-        <v>1.007198066998346</v>
+        <v>1.013203144247342</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9778763107949259</v>
+        <v>1.020493028805209</v>
       </c>
       <c r="D11">
-        <v>1.000841776930611</v>
+        <v>1.025947365735778</v>
       </c>
       <c r="E11">
-        <v>0.9884585128895175</v>
+        <v>1.024346229020104</v>
       </c>
       <c r="F11">
-        <v>0.9421454097764255</v>
+        <v>1.016310523700627</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03364570657981</v>
+        <v>1.030933136978069</v>
       </c>
       <c r="J11">
-        <v>1.008199329744484</v>
+        <v>1.027167385809665</v>
       </c>
       <c r="K11">
-        <v>1.015747836012348</v>
+        <v>1.029552140565919</v>
       </c>
       <c r="L11">
-        <v>1.003601417094038</v>
+        <v>1.0279570796008</v>
       </c>
       <c r="M11">
-        <v>0.9582475722728763</v>
+        <v>1.01995218777388</v>
       </c>
       <c r="N11">
-        <v>1.006619564822634</v>
+        <v>1.013093334637871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9767299459814404</v>
+        <v>1.020283016952952</v>
       </c>
       <c r="D12">
-        <v>1.000052644067366</v>
+        <v>1.025796500231038</v>
       </c>
       <c r="E12">
-        <v>0.9874671546599777</v>
+        <v>1.024150078946634</v>
       </c>
       <c r="F12">
-        <v>0.9401962053337438</v>
+        <v>1.015942897323536</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033329713715897</v>
+        <v>1.030888875972889</v>
       </c>
       <c r="J12">
-        <v>1.007552863597535</v>
+        <v>1.027045535371746</v>
       </c>
       <c r="K12">
-        <v>1.015178835569453</v>
+        <v>1.0294473354292</v>
       </c>
       <c r="L12">
-        <v>1.002838468628904</v>
+        <v>1.027807248253549</v>
       </c>
       <c r="M12">
-        <v>0.9565664233499391</v>
+        <v>1.019631981456523</v>
       </c>
       <c r="N12">
-        <v>1.006401795638911</v>
+        <v>1.013052514899199</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9769764850324992</v>
+        <v>1.020328063120648</v>
       </c>
       <c r="D13">
-        <v>1.000222316255043</v>
+        <v>1.025828859675437</v>
       </c>
       <c r="E13">
-        <v>0.9876803046959493</v>
+        <v>1.024192148731355</v>
       </c>
       <c r="F13">
-        <v>0.9406156951054888</v>
+        <v>1.016021753542974</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033397744160687</v>
+        <v>1.030898379046076</v>
       </c>
       <c r="J13">
-        <v>1.007691928398584</v>
+        <v>1.027071675945139</v>
       </c>
       <c r="K13">
-        <v>1.015301238675215</v>
+        <v>1.02946982065518</v>
       </c>
       <c r="L13">
-        <v>1.003002557154077</v>
+        <v>1.027839388010319</v>
       </c>
       <c r="M13">
-        <v>0.9569282407339229</v>
+        <v>1.019700669795911</v>
       </c>
       <c r="N13">
-        <v>1.006448641102615</v>
+        <v>1.013061272297187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9777818391624878</v>
+        <v>1.020475668219715</v>
       </c>
       <c r="D14">
-        <v>1.00077672679941</v>
+        <v>1.025934894372839</v>
       </c>
       <c r="E14">
-        <v>0.9883767915015368</v>
+        <v>1.024330012908668</v>
       </c>
       <c r="F14">
-        <v>0.9419849059042072</v>
+        <v>1.016280135183203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033619698350763</v>
+        <v>1.030929482378913</v>
       </c>
       <c r="J14">
-        <v>1.00814607027064</v>
+        <v>1.027157315075919</v>
       </c>
       <c r="K14">
-        <v>1.015700959694039</v>
+        <v>1.029543479220456</v>
       </c>
       <c r="L14">
-        <v>1.003538546149468</v>
+        <v>1.027944694686901</v>
       </c>
       <c r="M14">
-        <v>0.958109148274447</v>
+        <v>1.019925720765264</v>
       </c>
       <c r="N14">
-        <v>1.006601623778697</v>
+        <v>1.013089961108389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9782761849797078</v>
+        <v>1.020566618696417</v>
       </c>
       <c r="D15">
-        <v>1.001117152963935</v>
+        <v>1.026000230864704</v>
       </c>
       <c r="E15">
-        <v>0.9888044660918479</v>
+        <v>1.024414970415614</v>
       </c>
       <c r="F15">
-        <v>0.9428245263025248</v>
+        <v>1.016439335315289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033755727075996</v>
+        <v>1.030948619993527</v>
       </c>
       <c r="J15">
-        <v>1.008424732069221</v>
+        <v>1.027210070675041</v>
       </c>
       <c r="K15">
-        <v>1.01594622149465</v>
+        <v>1.029588850479007</v>
       </c>
       <c r="L15">
-        <v>1.003867526681457</v>
+        <v>1.028009576354552</v>
       </c>
       <c r="M15">
-        <v>0.9588332504677827</v>
+        <v>1.020064373385631</v>
       </c>
       <c r="N15">
-        <v>1.006695494084115</v>
+        <v>1.013107633054789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9811257156076707</v>
+        <v>1.021096082566622</v>
       </c>
       <c r="D16">
-        <v>1.003081156963057</v>
+        <v>1.026380593312392</v>
       </c>
       <c r="E16">
-        <v>0.9912719963631229</v>
+        <v>1.024909685728778</v>
       </c>
       <c r="F16">
-        <v>0.947652258379056</v>
+        <v>1.017365993276231</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034536592530144</v>
+        <v>1.0310596093123</v>
       </c>
       <c r="J16">
-        <v>1.010029467675532</v>
+        <v>1.027516985812593</v>
       </c>
       <c r="K16">
-        <v>1.017358487234495</v>
+        <v>1.029852743934666</v>
       </c>
       <c r="L16">
-        <v>1.005763499211251</v>
+        <v>1.028387196184023</v>
       </c>
       <c r="M16">
-        <v>0.9629959952507554</v>
+        <v>1.020871261543775</v>
       </c>
       <c r="N16">
-        <v>1.007236063865198</v>
+        <v>1.013210427514322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9828893348416372</v>
+        <v>1.021428282549998</v>
       </c>
       <c r="D17">
-        <v>1.004298153986857</v>
+        <v>1.026619250601342</v>
       </c>
       <c r="E17">
-        <v>0.9928011857656108</v>
+        <v>1.02522020584638</v>
       </c>
       <c r="F17">
-        <v>0.9506302701077431</v>
+        <v>1.017947304253452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035017017779972</v>
+        <v>1.031128877578218</v>
       </c>
       <c r="J17">
-        <v>1.011021310602193</v>
+        <v>1.027709377362202</v>
       </c>
       <c r="K17">
-        <v>1.018231238373718</v>
+        <v>1.03001811232985</v>
       </c>
       <c r="L17">
-        <v>1.006936624696559</v>
+        <v>1.028624049493804</v>
       </c>
       <c r="M17">
-        <v>0.9655630845044838</v>
+        <v>1.021377289872452</v>
       </c>
       <c r="N17">
-        <v>1.00757016878366</v>
+        <v>1.0132748513402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9839096889044256</v>
+        <v>1.021622078300626</v>
       </c>
       <c r="D18">
-        <v>1.00500275593396</v>
+        <v>1.026758478815495</v>
       </c>
       <c r="E18">
-        <v>0.9936866157029963</v>
+        <v>1.025401398156351</v>
       </c>
       <c r="F18">
-        <v>0.9523498743964227</v>
+        <v>1.018286390084751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035293930670439</v>
+        <v>1.031169153500418</v>
       </c>
       <c r="J18">
-        <v>1.011594659931798</v>
+        <v>1.027821549783296</v>
       </c>
       <c r="K18">
-        <v>1.018735690451134</v>
+        <v>1.030114509294075</v>
       </c>
       <c r="L18">
-        <v>1.007615223581231</v>
+        <v>1.028762195492002</v>
       </c>
       <c r="M18">
-        <v>0.9670451307967097</v>
+        <v>1.021672408792049</v>
       </c>
       <c r="N18">
-        <v>1.007763299311812</v>
+        <v>1.013312408279452</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9842562121697773</v>
+        <v>1.021688162566389</v>
       </c>
       <c r="D19">
-        <v>1.005242129321894</v>
+        <v>1.026805955986524</v>
       </c>
       <c r="E19">
-        <v>0.9939874360969041</v>
+        <v>1.025463192098696</v>
       </c>
       <c r="F19">
-        <v>0.952933324577905</v>
+        <v>1.018402012611818</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035387795909354</v>
+        <v>1.03118286498514</v>
       </c>
       <c r="J19">
-        <v>1.011789292606459</v>
+        <v>1.027859789813808</v>
       </c>
       <c r="K19">
-        <v>1.018906924933523</v>
+        <v>1.0301473680395</v>
       </c>
       <c r="L19">
-        <v>1.0078456620803</v>
+        <v>1.028809298583094</v>
       </c>
       <c r="M19">
-        <v>0.9675479304455724</v>
+        <v>1.021773030248354</v>
       </c>
       <c r="N19">
-        <v>1.007828859822188</v>
+        <v>1.013325210761784</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9827009827805008</v>
+        <v>1.021392637619626</v>
       </c>
       <c r="D20">
-        <v>1.004168128095656</v>
+        <v>1.026593642499528</v>
       </c>
       <c r="E20">
-        <v>0.9926377968776254</v>
+        <v>1.025186882607876</v>
       </c>
       <c r="F20">
-        <v>0.9503125748530659</v>
+        <v>1.017884933364783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034965816782488</v>
+        <v>1.031121458891938</v>
       </c>
       <c r="J20">
-        <v>1.01091543379601</v>
+        <v>1.027688740357718</v>
       </c>
       <c r="K20">
-        <v>1.018138079821751</v>
+        <v>1.03000037602951</v>
       </c>
       <c r="L20">
-        <v>1.006811348971071</v>
+        <v>1.028598638046663</v>
       </c>
       <c r="M20">
-        <v>0.965289255016584</v>
+        <v>1.021323001867547</v>
       </c>
       <c r="N20">
-        <v>1.007534504254742</v>
+        <v>1.013267941381012</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9775450713149038</v>
+        <v>1.020432200924511</v>
       </c>
       <c r="D21">
-        <v>1.000613710170877</v>
+        <v>1.025903668750727</v>
       </c>
       <c r="E21">
-        <v>0.9881719975528532</v>
+        <v>1.02428941225215</v>
       </c>
       <c r="F21">
-        <v>0.9415825442071919</v>
+        <v>1.016204047681149</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033554489767867</v>
+        <v>1.030920328675077</v>
       </c>
       <c r="J21">
-        <v>1.008012577267384</v>
+        <v>1.027132098463989</v>
       </c>
       <c r="K21">
-        <v>1.015583464945887</v>
+        <v>1.029521791152563</v>
       </c>
       <c r="L21">
-        <v>1.003380974216004</v>
+        <v>1.027913684755056</v>
       </c>
       <c r="M21">
-        <v>0.9577621319976496</v>
+        <v>1.019859450685528</v>
       </c>
       <c r="N21">
-        <v>1.0065566551825</v>
+        <v>1.013081513838412</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9742227901546008</v>
+        <v>1.01982860231423</v>
       </c>
       <c r="D22">
-        <v>0.9983284293154431</v>
+        <v>1.025470073037195</v>
       </c>
       <c r="E22">
-        <v>0.9853011825858804</v>
+        <v>1.023725784153315</v>
       </c>
       <c r="F22">
-        <v>0.9359209819044146</v>
+        <v>1.015147328772917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032635683163671</v>
+        <v>1.030792727034875</v>
       </c>
       <c r="J22">
-        <v>1.006137595934901</v>
+        <v>1.026781700724465</v>
       </c>
       <c r="K22">
-        <v>1.013933073237048</v>
+        <v>1.029220352125351</v>
       </c>
       <c r="L22">
-        <v>1.001169560024753</v>
+        <v>1.027482972355656</v>
       </c>
       <c r="M22">
-        <v>0.95287850502173</v>
+        <v>1.018938880888819</v>
       </c>
       <c r="N22">
-        <v>1.005925050743076</v>
+        <v>1.012964116926751</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9759919083962905</v>
+        <v>1.020148555958969</v>
       </c>
       <c r="D23">
-        <v>0.9995448459128895</v>
+        <v>1.025699909317688</v>
       </c>
       <c r="E23">
-        <v>0.9868292432167052</v>
+        <v>1.024024512447432</v>
       </c>
       <c r="F23">
-        <v>0.9389394598156948</v>
+        <v>1.015707505593236</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033125823769834</v>
+        <v>1.030860479342242</v>
       </c>
       <c r="J23">
-        <v>1.007136447462067</v>
+        <v>1.026967492408666</v>
       </c>
       <c r="K23">
-        <v>1.014812304192422</v>
+        <v>1.029380201082362</v>
       </c>
       <c r="L23">
-        <v>1.002347230056657</v>
+        <v>1.027711306187689</v>
       </c>
       <c r="M23">
-        <v>0.9554824074938332</v>
+        <v>1.019426929417347</v>
       </c>
       <c r="N23">
-        <v>1.006261521640184</v>
+        <v>1.013026368495222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9827861166705538</v>
+        <v>1.021408743939346</v>
       </c>
       <c r="D24">
-        <v>1.004226897395925</v>
+        <v>1.026605213626057</v>
       </c>
       <c r="E24">
-        <v>0.9927116453888472</v>
+        <v>1.025201939725085</v>
       </c>
       <c r="F24">
-        <v>0.9504561813296915</v>
+        <v>1.017913116031089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034988962524417</v>
+        <v>1.031124811469608</v>
       </c>
       <c r="J24">
-        <v>1.010963290928732</v>
+        <v>1.027698065474815</v>
       </c>
       <c r="K24">
-        <v>1.018180188376297</v>
+        <v>1.030008390484418</v>
       </c>
       <c r="L24">
-        <v>1.006867973149502</v>
+        <v>1.028610120405981</v>
       </c>
       <c r="M24">
-        <v>0.9654130338969756</v>
+        <v>1.021347532399221</v>
       </c>
       <c r="N24">
-        <v>1.00755062490865</v>
+        <v>1.01327106375713</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9903457026662329</v>
+        <v>1.022872262256203</v>
       </c>
       <c r="D25">
-        <v>1.009455444191997</v>
+        <v>1.027656685300001</v>
       </c>
       <c r="E25">
-        <v>0.9992838174793202</v>
+        <v>1.026571067568537</v>
       </c>
       <c r="F25">
-        <v>0.9631434468027453</v>
+        <v>1.020473286520871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037021806986991</v>
+        <v>1.031426567896093</v>
       </c>
       <c r="J25">
-        <v>1.015202398610243</v>
+        <v>1.028544036698059</v>
       </c>
       <c r="K25">
-        <v>1.021908728647606</v>
+        <v>1.030735028567717</v>
       </c>
       <c r="L25">
-        <v>1.01189326144189</v>
+        <v>1.029652886057318</v>
       </c>
       <c r="M25">
-        <v>0.9763421934349722</v>
+        <v>1.023574775393616</v>
       </c>
       <c r="N25">
-        <v>1.008978445584219</v>
+        <v>1.013554218551669</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024040460224237</v>
+        <v>0.9961389245970466</v>
       </c>
       <c r="D2">
-        <v>1.028496038485717</v>
+        <v>1.013475427887584</v>
       </c>
       <c r="E2">
-        <v>1.027665297947351</v>
+        <v>1.004340776791387</v>
       </c>
       <c r="F2">
-        <v>1.022515992300518</v>
+        <v>0.9727878564315663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031663216818477</v>
+        <v>1.03854651833208</v>
       </c>
       <c r="J2">
-        <v>1.029217301905035</v>
+        <v>1.018435736268835</v>
       </c>
       <c r="K2">
-        <v>1.031312686883958</v>
+        <v>1.024750167308577</v>
       </c>
       <c r="L2">
-        <v>1.030484364629102</v>
+        <v>1.015739967148034</v>
       </c>
       <c r="M2">
-        <v>1.025350143973158</v>
+        <v>0.9846397845245296</v>
       </c>
       <c r="N2">
-        <v>1.01377941020637</v>
+        <v>1.010067226976549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024889188612673</v>
+        <v>1.000219609052327</v>
       </c>
       <c r="D3">
-        <v>1.029105872936048</v>
+        <v>1.016313677886483</v>
       </c>
       <c r="E3">
-        <v>1.028461077837401</v>
+        <v>1.007914087346011</v>
       </c>
       <c r="F3">
-        <v>1.023999682693419</v>
+        <v>0.9795457226516493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031832701924532</v>
+        <v>1.039600833024571</v>
       </c>
       <c r="J3">
-        <v>1.029705288333132</v>
+        <v>1.020704289093341</v>
       </c>
       <c r="K3">
-        <v>1.031731003574622</v>
+        <v>1.026741992086582</v>
       </c>
       <c r="L3">
-        <v>1.031087949892214</v>
+        <v>1.018446697598994</v>
       </c>
       <c r="M3">
-        <v>1.026638668804998</v>
+        <v>0.9904471871072787</v>
       </c>
       <c r="N3">
-        <v>1.013942538246503</v>
+        <v>1.01083090108132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025438607123161</v>
+        <v>1.002805318051094</v>
       </c>
       <c r="D4">
-        <v>1.029500650977918</v>
+        <v>1.018114878804716</v>
       </c>
       <c r="E4">
-        <v>1.028976584168031</v>
+        <v>1.010183325245159</v>
       </c>
       <c r="F4">
-        <v>1.024959991830948</v>
+        <v>0.9838142007504539</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031941284243814</v>
+        <v>1.040259618895123</v>
       </c>
       <c r="J4">
-        <v>1.030020646449017</v>
+        <v>1.022137534714937</v>
       </c>
       <c r="K4">
-        <v>1.032001163746147</v>
+        <v>1.0279994808564</v>
       </c>
       <c r="L4">
-        <v>1.031478441090968</v>
+        <v>1.020160380728167</v>
       </c>
       <c r="M4">
-        <v>1.027472199968253</v>
+        <v>0.994111980925568</v>
       </c>
       <c r="N4">
-        <v>1.014047915641866</v>
+        <v>1.01131325288664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025669638111786</v>
+        <v>1.003879710926751</v>
       </c>
       <c r="D5">
-        <v>1.029666656345226</v>
+        <v>1.018863916544873</v>
       </c>
       <c r="E5">
-        <v>1.029193441766616</v>
+        <v>1.011127401000843</v>
       </c>
       <c r="F5">
-        <v>1.025363772377986</v>
+        <v>0.9855849247505132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031986671962122</v>
+        <v>1.040531100516179</v>
       </c>
       <c r="J5">
-        <v>1.030153126364585</v>
+        <v>1.022732044361395</v>
       </c>
       <c r="K5">
-        <v>1.032114614317151</v>
+        <v>1.028520849808627</v>
       </c>
       <c r="L5">
-        <v>1.031642586454573</v>
+        <v>1.020872078186558</v>
       </c>
       <c r="M5">
-        <v>1.027822564441884</v>
+        <v>0.9956314414380947</v>
       </c>
       <c r="N5">
-        <v>1.014092173633045</v>
+        <v>1.011513298008597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025708432462715</v>
+        <v>1.004059378294873</v>
       </c>
       <c r="D6">
-        <v>1.029694531731154</v>
+        <v>1.0189892108259</v>
       </c>
       <c r="E6">
-        <v>1.029229861219261</v>
+        <v>1.011285344518415</v>
       </c>
       <c r="F6">
-        <v>1.025431572923764</v>
+        <v>0.9858808789028174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031994277486775</v>
+        <v>1.04057636641101</v>
       </c>
       <c r="J6">
-        <v>1.03017536464513</v>
+        <v>1.022831402032115</v>
       </c>
       <c r="K6">
-        <v>1.032133655833828</v>
+        <v>1.028607969447384</v>
       </c>
       <c r="L6">
-        <v>1.031670146159313</v>
+        <v>1.020991071593565</v>
       </c>
       <c r="M6">
-        <v>1.027881389219931</v>
+        <v>0.9958853502509974</v>
       </c>
       <c r="N6">
-        <v>1.014099602236534</v>
+        <v>1.011546728526448</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025441693953535</v>
+        <v>1.002819723198184</v>
       </c>
       <c r="D7">
-        <v>1.029502868991272</v>
+        <v>1.018124919303006</v>
       </c>
       <c r="E7">
-        <v>1.028979481285946</v>
+        <v>1.010195978507539</v>
       </c>
       <c r="F7">
-        <v>1.024965386899995</v>
+        <v>0.9838379529861982</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031941891739892</v>
+        <v>1.040263267771842</v>
       </c>
       <c r="J7">
-        <v>1.030022417032429</v>
+        <v>1.022145509774434</v>
       </c>
       <c r="K7">
-        <v>1.032002680169212</v>
+        <v>1.028006475725045</v>
       </c>
       <c r="L7">
-        <v>1.031480634477516</v>
+        <v>1.020169924397634</v>
       </c>
       <c r="M7">
-        <v>1.027476881755978</v>
+        <v>0.9941323660802874</v>
       </c>
       <c r="N7">
-        <v>1.014048507187219</v>
+        <v>1.011315936534754</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02432724298922</v>
+        <v>0.9975296434742714</v>
       </c>
       <c r="D8">
-        <v>1.028702098148131</v>
+        <v>1.01444211341301</v>
       </c>
       <c r="E8">
-        <v>1.027934114086769</v>
+        <v>1.005557510503091</v>
       </c>
       <c r="F8">
-        <v>1.023017360406094</v>
+        <v>0.9750940746628045</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031720719744845</v>
+        <v>1.038907764174785</v>
       </c>
       <c r="J8">
-        <v>1.029382302108687</v>
+        <v>1.019209749016323</v>
       </c>
       <c r="K8">
-        <v>1.031454166015846</v>
+        <v>1.025429947107209</v>
       </c>
       <c r="L8">
-        <v>1.030688362950532</v>
+        <v>1.016662724363989</v>
       </c>
       <c r="M8">
-        <v>1.025785656620624</v>
+        <v>0.9866223264342445</v>
       </c>
       <c r="N8">
-        <v>1.0138345766898</v>
+        <v>1.010327811713125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022365264088429</v>
+        <v>0.9877657697165483</v>
       </c>
       <c r="D9">
-        <v>1.027292419921237</v>
+        <v>1.007668833733575</v>
       </c>
       <c r="E9">
-        <v>1.026096554757183</v>
+        <v>0.9970375582976494</v>
       </c>
       <c r="F9">
-        <v>1.01958652712302</v>
+        <v>0.9588273714930787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031322684269613</v>
+        <v>1.036333206106095</v>
       </c>
       <c r="J9">
-        <v>1.02825128105463</v>
+        <v>1.013758072328817</v>
       </c>
       <c r="K9">
-        <v>1.030483667066894</v>
+        <v>1.020638702824068</v>
       </c>
       <c r="L9">
-        <v>1.029291780942482</v>
+        <v>1.01017888260439</v>
       </c>
       <c r="M9">
-        <v>1.02280359414272</v>
+        <v>0.9726257417758641</v>
       </c>
       <c r="N9">
-        <v>1.013456254513323</v>
+        <v>1.008491999705195</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021058544724684</v>
+        <v>0.9809252642104436</v>
       </c>
       <c r="D10">
-        <v>1.026353625939112</v>
+        <v>1.002942903767598</v>
       </c>
       <c r="E10">
-        <v>1.024874603618385</v>
+        <v>0.9910982872821905</v>
       </c>
       <c r="F10">
-        <v>1.017300301730312</v>
+        <v>0.947313307258981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03105176414241</v>
+        <v>1.034481846629229</v>
       </c>
       <c r="J10">
-        <v>1.027495237457536</v>
+        <v>1.009916669208837</v>
       </c>
       <c r="K10">
-        <v>1.029834047658989</v>
+        <v>1.01725922569809</v>
       </c>
       <c r="L10">
-        <v>1.028360428610037</v>
+        <v>1.005630146696792</v>
       </c>
       <c r="M10">
-        <v>1.020814070126477</v>
+        <v>0.962703777843632</v>
       </c>
       <c r="N10">
-        <v>1.013203144247342</v>
+        <v>1.007198066998346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020493028805209</v>
+        <v>0.9778763107949257</v>
       </c>
       <c r="D11">
-        <v>1.025947365735778</v>
+        <v>1.000841776930611</v>
       </c>
       <c r="E11">
-        <v>1.024346229020104</v>
+        <v>0.9884585128895172</v>
       </c>
       <c r="F11">
-        <v>1.016310523700627</v>
+        <v>0.942145409776425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030933136978069</v>
+        <v>1.03364570657981</v>
       </c>
       <c r="J11">
-        <v>1.027167385809665</v>
+        <v>1.008199329744484</v>
       </c>
       <c r="K11">
-        <v>1.029552140565919</v>
+        <v>1.015747836012348</v>
       </c>
       <c r="L11">
-        <v>1.0279570796008</v>
+        <v>1.003601417094038</v>
       </c>
       <c r="M11">
-        <v>1.01995218777388</v>
+        <v>0.9582475722728758</v>
       </c>
       <c r="N11">
-        <v>1.013093334637871</v>
+        <v>1.006619564822634</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020283016952952</v>
+        <v>0.9767299459814403</v>
       </c>
       <c r="D12">
-        <v>1.025796500231038</v>
+        <v>1.000052644067366</v>
       </c>
       <c r="E12">
-        <v>1.024150078946634</v>
+        <v>0.9874671546599775</v>
       </c>
       <c r="F12">
-        <v>1.015942897323536</v>
+        <v>0.9401962053337439</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030888875972889</v>
+        <v>1.033329713715897</v>
       </c>
       <c r="J12">
-        <v>1.027045535371746</v>
+        <v>1.007552863597535</v>
       </c>
       <c r="K12">
-        <v>1.0294473354292</v>
+        <v>1.015178835569453</v>
       </c>
       <c r="L12">
-        <v>1.027807248253549</v>
+        <v>1.002838468628904</v>
       </c>
       <c r="M12">
-        <v>1.019631981456523</v>
+        <v>0.9565664233499389</v>
       </c>
       <c r="N12">
-        <v>1.013052514899199</v>
+        <v>1.006401795638911</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020328063120648</v>
+        <v>0.9769764850324996</v>
       </c>
       <c r="D13">
-        <v>1.025828859675437</v>
+        <v>1.000222316255043</v>
       </c>
       <c r="E13">
-        <v>1.024192148731355</v>
+        <v>0.9876803046959498</v>
       </c>
       <c r="F13">
-        <v>1.016021753542974</v>
+        <v>0.9406156951054898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030898379046076</v>
+        <v>1.033397744160688</v>
       </c>
       <c r="J13">
-        <v>1.027071675945139</v>
+        <v>1.007691928398585</v>
       </c>
       <c r="K13">
-        <v>1.02946982065518</v>
+        <v>1.015301238675215</v>
       </c>
       <c r="L13">
-        <v>1.027839388010319</v>
+        <v>1.003002557154077</v>
       </c>
       <c r="M13">
-        <v>1.019700669795911</v>
+        <v>0.9569282407339238</v>
       </c>
       <c r="N13">
-        <v>1.013061272297187</v>
+        <v>1.006448641102615</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020475668219715</v>
+        <v>0.9777818391624882</v>
       </c>
       <c r="D14">
-        <v>1.025934894372839</v>
+        <v>1.00077672679941</v>
       </c>
       <c r="E14">
-        <v>1.024330012908668</v>
+        <v>0.9883767915015368</v>
       </c>
       <c r="F14">
-        <v>1.016280135183203</v>
+        <v>0.9419849059042079</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030929482378913</v>
+        <v>1.033619698350764</v>
       </c>
       <c r="J14">
-        <v>1.027157315075919</v>
+        <v>1.00814607027064</v>
       </c>
       <c r="K14">
-        <v>1.029543479220456</v>
+        <v>1.015700959694039</v>
       </c>
       <c r="L14">
-        <v>1.027944694686901</v>
+        <v>1.003538546149468</v>
       </c>
       <c r="M14">
-        <v>1.019925720765264</v>
+        <v>0.9581091482744478</v>
       </c>
       <c r="N14">
-        <v>1.013089961108389</v>
+        <v>1.006601623778697</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020566618696417</v>
+        <v>0.9782761849797068</v>
       </c>
       <c r="D15">
-        <v>1.026000230864704</v>
+        <v>1.001117152963934</v>
       </c>
       <c r="E15">
-        <v>1.024414970415614</v>
+        <v>0.9888044660918472</v>
       </c>
       <c r="F15">
-        <v>1.016439335315289</v>
+        <v>0.9428245263025241</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030948619993527</v>
+        <v>1.033755727075995</v>
       </c>
       <c r="J15">
-        <v>1.027210070675041</v>
+        <v>1.00842473206922</v>
       </c>
       <c r="K15">
-        <v>1.029588850479007</v>
+        <v>1.01594622149465</v>
       </c>
       <c r="L15">
-        <v>1.028009576354552</v>
+        <v>1.003867526681456</v>
       </c>
       <c r="M15">
-        <v>1.020064373385631</v>
+        <v>0.9588332504677821</v>
       </c>
       <c r="N15">
-        <v>1.013107633054789</v>
+        <v>1.006695494084115</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021096082566622</v>
+        <v>0.9811257156076707</v>
       </c>
       <c r="D16">
-        <v>1.026380593312392</v>
+        <v>1.003081156963058</v>
       </c>
       <c r="E16">
-        <v>1.024909685728778</v>
+        <v>0.991271996363123</v>
       </c>
       <c r="F16">
-        <v>1.017365993276231</v>
+        <v>0.9476522583790561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0310596093123</v>
+        <v>1.034536592530144</v>
       </c>
       <c r="J16">
-        <v>1.027516985812593</v>
+        <v>1.010029467675533</v>
       </c>
       <c r="K16">
-        <v>1.029852743934666</v>
+        <v>1.017358487234495</v>
       </c>
       <c r="L16">
-        <v>1.028387196184023</v>
+        <v>1.005763499211251</v>
       </c>
       <c r="M16">
-        <v>1.020871261543775</v>
+        <v>0.9629959952507553</v>
       </c>
       <c r="N16">
-        <v>1.013210427514322</v>
+        <v>1.007236063865198</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021428282549998</v>
+        <v>0.9828893348416372</v>
       </c>
       <c r="D17">
-        <v>1.026619250601342</v>
+        <v>1.004298153986857</v>
       </c>
       <c r="E17">
-        <v>1.02522020584638</v>
+        <v>0.9928011857656108</v>
       </c>
       <c r="F17">
-        <v>1.017947304253452</v>
+        <v>0.9506302701077428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031128877578218</v>
+        <v>1.035017017779972</v>
       </c>
       <c r="J17">
-        <v>1.027709377362202</v>
+        <v>1.011021310602193</v>
       </c>
       <c r="K17">
-        <v>1.03001811232985</v>
+        <v>1.018231238373718</v>
       </c>
       <c r="L17">
-        <v>1.028624049493804</v>
+        <v>1.006936624696559</v>
       </c>
       <c r="M17">
-        <v>1.021377289872452</v>
+        <v>0.9655630845044835</v>
       </c>
       <c r="N17">
-        <v>1.0132748513402</v>
+        <v>1.00757016878366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021622078300626</v>
+        <v>0.9839096889044263</v>
       </c>
       <c r="D18">
-        <v>1.026758478815495</v>
+        <v>1.005002755933961</v>
       </c>
       <c r="E18">
-        <v>1.025401398156351</v>
+        <v>0.993686615702997</v>
       </c>
       <c r="F18">
-        <v>1.018286390084751</v>
+        <v>0.9523498743964238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031169153500418</v>
+        <v>1.03529393067044</v>
       </c>
       <c r="J18">
-        <v>1.027821549783296</v>
+        <v>1.011594659931799</v>
       </c>
       <c r="K18">
-        <v>1.030114509294075</v>
+        <v>1.018735690451135</v>
       </c>
       <c r="L18">
-        <v>1.028762195492002</v>
+        <v>1.007615223581232</v>
       </c>
       <c r="M18">
-        <v>1.021672408792049</v>
+        <v>0.9670451307967107</v>
       </c>
       <c r="N18">
-        <v>1.013312408279452</v>
+        <v>1.007763299311813</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021688162566389</v>
+        <v>0.9842562121697781</v>
       </c>
       <c r="D19">
-        <v>1.026805955986524</v>
+        <v>1.005242129321895</v>
       </c>
       <c r="E19">
-        <v>1.025463192098696</v>
+        <v>0.9939874360969052</v>
       </c>
       <c r="F19">
-        <v>1.018402012611818</v>
+        <v>0.9529333245779061</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03118286498514</v>
+        <v>1.035387795909354</v>
       </c>
       <c r="J19">
-        <v>1.027859789813808</v>
+        <v>1.01178929260646</v>
       </c>
       <c r="K19">
-        <v>1.0301473680395</v>
+        <v>1.018906924933523</v>
       </c>
       <c r="L19">
-        <v>1.028809298583094</v>
+        <v>1.007845662080301</v>
       </c>
       <c r="M19">
-        <v>1.021773030248354</v>
+        <v>0.9675479304455735</v>
       </c>
       <c r="N19">
-        <v>1.013325210761784</v>
+        <v>1.007828859822189</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.021392637619626</v>
+        <v>0.9827009827805012</v>
       </c>
       <c r="D20">
-        <v>1.026593642499528</v>
+        <v>1.004168128095656</v>
       </c>
       <c r="E20">
-        <v>1.025186882607876</v>
+        <v>0.9926377968776262</v>
       </c>
       <c r="F20">
-        <v>1.017884933364783</v>
+        <v>0.950312574853066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031121458891938</v>
+        <v>1.034965816782489</v>
       </c>
       <c r="J20">
-        <v>1.027688740357718</v>
+        <v>1.010915433796011</v>
       </c>
       <c r="K20">
-        <v>1.03000037602951</v>
+        <v>1.018138079821752</v>
       </c>
       <c r="L20">
-        <v>1.028598638046663</v>
+        <v>1.006811348971072</v>
       </c>
       <c r="M20">
-        <v>1.021323001867547</v>
+        <v>0.9652892550165841</v>
       </c>
       <c r="N20">
-        <v>1.013267941381012</v>
+        <v>1.007534504254742</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020432200924511</v>
+        <v>0.9775450713149041</v>
       </c>
       <c r="D21">
-        <v>1.025903668750727</v>
+        <v>1.000613710170878</v>
       </c>
       <c r="E21">
-        <v>1.02428941225215</v>
+        <v>0.988171997552854</v>
       </c>
       <c r="F21">
-        <v>1.016204047681149</v>
+        <v>0.9415825442071919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030920328675077</v>
+        <v>1.033554489767867</v>
       </c>
       <c r="J21">
-        <v>1.027132098463989</v>
+        <v>1.008012577267384</v>
       </c>
       <c r="K21">
-        <v>1.029521791152563</v>
+        <v>1.015583464945887</v>
       </c>
       <c r="L21">
-        <v>1.027913684755056</v>
+        <v>1.003380974216004</v>
       </c>
       <c r="M21">
-        <v>1.019859450685528</v>
+        <v>0.9577621319976497</v>
       </c>
       <c r="N21">
-        <v>1.013081513838412</v>
+        <v>1.0065566551825</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01982860231423</v>
+        <v>0.9742227901546001</v>
       </c>
       <c r="D22">
-        <v>1.025470073037195</v>
+        <v>0.9983284293154425</v>
       </c>
       <c r="E22">
-        <v>1.023725784153315</v>
+        <v>0.9853011825858794</v>
       </c>
       <c r="F22">
-        <v>1.015147328772917</v>
+        <v>0.9359209819044141</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030792727034875</v>
+        <v>1.032635683163671</v>
       </c>
       <c r="J22">
-        <v>1.026781700724465</v>
+        <v>1.0061375959349</v>
       </c>
       <c r="K22">
-        <v>1.029220352125351</v>
+        <v>1.013933073237048</v>
       </c>
       <c r="L22">
-        <v>1.027482972355656</v>
+        <v>1.001169560024752</v>
       </c>
       <c r="M22">
-        <v>1.018938880888819</v>
+        <v>0.9528785050217297</v>
       </c>
       <c r="N22">
-        <v>1.012964116926751</v>
+        <v>1.005925050743076</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020148555958969</v>
+        <v>0.975991908396291</v>
       </c>
       <c r="D23">
-        <v>1.025699909317688</v>
+        <v>0.9995448459128901</v>
       </c>
       <c r="E23">
-        <v>1.024024512447432</v>
+        <v>0.9868292432167061</v>
       </c>
       <c r="F23">
-        <v>1.015707505593236</v>
+        <v>0.9389394598156949</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030860479342242</v>
+        <v>1.033125823769834</v>
       </c>
       <c r="J23">
-        <v>1.026967492408666</v>
+        <v>1.007136447462068</v>
       </c>
       <c r="K23">
-        <v>1.029380201082362</v>
+        <v>1.014812304192422</v>
       </c>
       <c r="L23">
-        <v>1.027711306187689</v>
+        <v>1.002347230056658</v>
       </c>
       <c r="M23">
-        <v>1.019426929417347</v>
+        <v>0.9554824074938333</v>
       </c>
       <c r="N23">
-        <v>1.013026368495222</v>
+        <v>1.006261521640184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021408743939346</v>
+        <v>0.982786116670553</v>
       </c>
       <c r="D24">
-        <v>1.026605213626057</v>
+        <v>1.004226897395925</v>
       </c>
       <c r="E24">
-        <v>1.025201939725085</v>
+        <v>0.9927116453888463</v>
       </c>
       <c r="F24">
-        <v>1.017913116031089</v>
+        <v>0.9504561813296902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031124811469608</v>
+        <v>1.034988962524416</v>
       </c>
       <c r="J24">
-        <v>1.027698065474815</v>
+        <v>1.010963290928731</v>
       </c>
       <c r="K24">
-        <v>1.030008390484418</v>
+        <v>1.018180188376296</v>
       </c>
       <c r="L24">
-        <v>1.028610120405981</v>
+        <v>1.006867973149501</v>
       </c>
       <c r="M24">
-        <v>1.021347532399221</v>
+        <v>0.9654130338969747</v>
       </c>
       <c r="N24">
-        <v>1.01327106375713</v>
+        <v>1.00755062490865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022872262256203</v>
+        <v>0.9903457026662326</v>
       </c>
       <c r="D25">
-        <v>1.027656685300001</v>
+        <v>1.009455444191997</v>
       </c>
       <c r="E25">
-        <v>1.026571067568537</v>
+        <v>0.9992838174793198</v>
       </c>
       <c r="F25">
-        <v>1.020473286520871</v>
+        <v>0.9631434468027452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031426567896093</v>
+        <v>1.037021806986991</v>
       </c>
       <c r="J25">
-        <v>1.028544036698059</v>
+        <v>1.015202398610243</v>
       </c>
       <c r="K25">
-        <v>1.030735028567717</v>
+        <v>1.021908728647606</v>
       </c>
       <c r="L25">
-        <v>1.029652886057318</v>
+        <v>1.01189326144189</v>
       </c>
       <c r="M25">
-        <v>1.023574775393616</v>
+        <v>0.9763421934349722</v>
       </c>
       <c r="N25">
-        <v>1.013554218551669</v>
+        <v>1.008978445584219</v>
       </c>
     </row>
   </sheetData>
